--- a/excel/xlsx/matched.xlsx
+++ b/excel/xlsx/matched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/znb/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P6072866\workspace\FileFormatSample\excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FD4874-CC12-E448-9DD0-AA807E7622B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A1A592-D534-4754-8696-499E8B80B651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="820" windowWidth="28300" windowHeight="17440" activeTab="1" xr2:uid="{B60C0C6E-7428-AF40-90BA-3B840C323F77}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B60C0C6E-7428-AF40-90BA-3B840C323F77}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -75,30 +75,36 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -144,19 +150,22 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -172,7 +181,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -488,43 +497,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A74CCEF4-E8C0-EA44-879A-FF0B76B0A9F2}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="2.77734375" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -536,15 +549,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1BE4F2-E3E9-814A-AB97-FFB320647F1C}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="2.77734375" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,360 +569,360 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="str">
-        <f>VLOOKUP(A2, Master!$A$2:$B$100, 2, FALSE)</f>
+      <c r="B2" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A2, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A2, Master!$A$1:$B$100, 2, FALSE))</f>
         <v>English</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="str">
-        <f>VLOOKUP(A3, Master!$A$2:$B$100, 2, FALSE)</f>
+      <c r="B3" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A3, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A3, Master!$A$1:$B$100, 2, FALSE))</f>
         <v>Chinese</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="str">
-        <f>VLOOKUP(A4, Master!$A$1:$B$100, 2, FALSE)</f>
+      <c r="B4" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A4, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A4, Master!$A$1:$B$100, 2, FALSE))</f>
         <v>Japanese</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="e">
-        <f>VLOOKUP(A5, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="e">
-        <f>VLOOKUP(A6, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="e">
-        <f>VLOOKUP(A7, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="e">
-        <f>VLOOKUP(A8, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="e">
-        <f>VLOOKUP(A9, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="e">
-        <f>VLOOKUP(A10, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="e">
-        <f>VLOOKUP(A11, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="e">
-        <f>VLOOKUP(A12, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="e">
-        <f>VLOOKUP(A13, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="e">
-        <f>VLOOKUP(A14, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="e">
-        <f>VLOOKUP(A15, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="e">
-        <f>VLOOKUP(A16, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="e">
-        <f>VLOOKUP(A17, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="e">
-        <f>VLOOKUP(A18, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2" t="e">
-        <f>VLOOKUP(A19, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="e">
-        <f>VLOOKUP(A20, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="e">
-        <f>VLOOKUP(A21, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2" t="e">
-        <f>VLOOKUP(A22, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2" t="e">
-        <f>VLOOKUP(A23, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2" t="e">
-        <f>VLOOKUP(A24, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2" t="e">
-        <f>VLOOKUP(A25, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2" t="e">
-        <f>VLOOKUP(A26, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2" t="e">
-        <f>VLOOKUP(A27, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2" t="e">
-        <f>VLOOKUP(A28, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2" t="e">
-        <f>VLOOKUP(A29, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2" t="e">
-        <f>VLOOKUP(A30, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2" t="e">
-        <f>VLOOKUP(A31, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2" t="e">
-        <f>VLOOKUP(A32, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2" t="e">
-        <f>VLOOKUP(A33, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2" t="e">
-        <f>VLOOKUP(A34, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2" t="e">
-        <f>VLOOKUP(A35, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2" t="e">
-        <f>VLOOKUP(A36, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2" t="e">
-        <f>VLOOKUP(A37, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2" t="e">
-        <f>VLOOKUP(A38, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2" t="e">
-        <f>VLOOKUP(A39, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2" t="e">
-        <f>VLOOKUP(A40, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2" t="e">
-        <f>VLOOKUP(A41, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2" t="e">
-        <f>VLOOKUP(A42, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2" t="e">
-        <f>VLOOKUP(A43, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2" t="e">
-        <f>VLOOKUP(A44, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2" t="e">
-        <f>VLOOKUP(A45, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2" t="e">
-        <f>VLOOKUP(A46, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2" t="e">
-        <f>VLOOKUP(A47, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2" t="e">
-        <f>VLOOKUP(A48, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2" t="e">
-        <f>VLOOKUP(A49, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2" t="e">
-        <f>VLOOKUP(A50, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2" t="e">
-        <f>VLOOKUP(A51, Master!$A$1:$B$100, 2, FALSE)</f>
-        <v>#N/A</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A5, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A5, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A6, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A6, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A7, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A7, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A8, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A8, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A9, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A9, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A10, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A10, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A11, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A11, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A12, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A12, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A13, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A13, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A14, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A14, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A15, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A15, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A16, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A16, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A17, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A17, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A18, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A18, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A19, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A19, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A20, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A20, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A21, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A21, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A22, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A22, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A23, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A23, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A24, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A24, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A25, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A25, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A26, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A26, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A27, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A27, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A28, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A28, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A29, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A29, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A30, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A30, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A31, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A31, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A32, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A32, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A33, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A33, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A34, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A34, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A35, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A35, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A36, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A36, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A37, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A37, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A38, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A38, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A39, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A39, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A40, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A40, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A41, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A41, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A42, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A42, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A43, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A43, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A44, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A44, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A45, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A45, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A46, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A46, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A47, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A47, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A48, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A48, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A49, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A49, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A50, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A50, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(A51, Master!$A$1:$B$100, 2, FALSE)), "", VLOOKUP(A51, Master!$A$1:$B$100, 2, FALSE))</f>
+        <v/>
       </c>
     </row>
   </sheetData>
